--- a/data/trans_camb/P28A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +632,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-3,18</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>-2,21</t>
         </is>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,09</t>
+          <t>-9,39; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,0</t>
+          <t>-10,41; -0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 1,04</t>
+          <t>-9,62; 0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,33</t>
+          <t>-6,94; 2,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 12,69</t>
+          <t>-7,79; 1,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 3,7</t>
+          <t>-7,98; 0,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 3,17</t>
+          <t>-5,38; 1,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 3,65</t>
+          <t>-6,5; -0,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; -0,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 1,06</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 1,2</t>
+          <t>-6,18; -0,06</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,55%</t>
+          <t>-50,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-73,33%</t>
+          <t>-79,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-48,27%</t>
+          <t>-61,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-48,83%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>142,23%</t>
+          <t>-57,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-72,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,6%</t>
+          <t>-37,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-73,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-61,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-47,39%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-42,54%</t>
+          <t>-65,37%</t>
         </is>
       </c>
     </row>
@@ -860,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,84; 208,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-95,01; -9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,6; 52,42</t>
+          <t>-92,76; 66,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,27; 75,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -890,32 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,36; 85,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,42; 3,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 194,69</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-87,49; 9,11</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-80,98; 58,19</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-80,88; 69,89</t>
+          <t>-90,7; 17,92</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,28</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,17</t>
+          <t>-5,36; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -4,15</t>
+          <t>-10,37; -3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -4,26</t>
+          <t>-10,11; -3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 0,09</t>
+          <t>-4,49; 1,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,32</t>
+          <t>-6,33; -0,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,86</t>
+          <t>-6,42; -0,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; -0,5</t>
+          <t>-3,88; 1,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,48</t>
+          <t>-7,26; -2,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,29</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; -3,84</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; -3,74</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; -0,8</t>
+          <t>-6,84; -2,51</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,02%</t>
+          <t>-76,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-74,35%</t>
+          <t>-76,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,84%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>-64,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,04%</t>
+          <t>-56,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,68%</t>
+          <t>-15,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,91%</t>
+          <t>-71,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-64,72%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-64,68%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-36,67%</t>
+          <t>-68,63%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 78,13</t>
+          <t>-51,64; 61,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-88,78; -44,38</t>
+          <t>-91,01; -44,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,99; -46,2</t>
+          <t>-90,36; -48,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 6,67</t>
+          <t>-62,31; 55,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 93,17</t>
+          <t>-85,03; -22,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,48; -8,5</t>
+          <t>-80,74; -7,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,77; -5,39</t>
+          <t>-46,92; 31,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 33,67</t>
+          <t>-85,06; -48,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 61,48</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-78,24; -44,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-77,93; -42,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-59,21; -9,29</t>
+          <t>-82,01; -47,22</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,05</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
+          <t>-6,24</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,25</t>
+          <t>-10,15; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -7,1</t>
+          <t>-17,36; -7,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -1,46</t>
+          <t>-14,63; -3,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 2,83</t>
+          <t>-5,24; 3,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,87</t>
+          <t>-9,1; -2,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -2,51</t>
+          <t>-8,97; -1,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -1,59</t>
+          <t>-6,69; 0,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -0,46</t>
+          <t>-11,7; -5,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,55</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; -6,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; -3,25</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; -0,34</t>
+          <t>-9,48; -3,12</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-32,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-82,99%</t>
+          <t>-87,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,17%</t>
+          <t>-61,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,19%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>-73,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,41%</t>
+          <t>-62,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-56,97%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-52,52%</t>
+          <t>-82,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,98%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-75,15%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-53,14%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-41,13%</t>
+          <t>-61,36%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 42,15</t>
+          <t>-59,9; 20,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,9; -59,98</t>
+          <t>-95,91; -65,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,15; -12,5</t>
+          <t>-79,44; -30,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 26,2</t>
+          <t>-53,05; 73,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 59,57</t>
+          <t>-88,85; -44,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,46; -28,42</t>
+          <t>-82,14; -31,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,66; -17,6</t>
+          <t>-51,16; 14,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,11; -1,28</t>
+          <t>-89,86; -61,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 25,08</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-84,7; -59,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-70,71; -31,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-65,42; -2,75</t>
+          <t>-76,68; -37,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-5,91</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,5</t>
+          <t>-0,52; 8,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -5,91</t>
+          <t>-6,19; -2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; -3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -1,74</t>
+          <t>-0,9; 3,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,76</t>
+          <t>-1,9; 2,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -2,38</t>
+          <t>-0,18; 4,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,79</t>
+          <t>-3,67; -0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,97</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; -5,54</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; -4,13</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -2,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-78,25%</t>
+          <t>-76,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,74%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,29%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-41,97%</t>
+          <t>-52,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-69,85%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-58,88%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-43,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 38,89</t>
+          <t>-10,34; 157,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-87,43; -63,38</t>
+          <t>-92,03; -35,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,12; -40,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,87; -17,99</t>
+          <t>-26,15; 129,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 58,69</t>
+          <t>-52,82; 84,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,5; -33,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-70,92; -27,22</t>
+          <t>-4,23; 112,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,35; -9,3</t>
+          <t>-72,85; -18,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 32,6</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-78,7; -59,86</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-70,29; -45,43</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-59,24; -26,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,62</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 2,81</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; -3,99</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; -2,36</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,72</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; -1,05</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; -0,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 1,79</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; -2,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; -2,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-77,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-59,23%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-53,65%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-52,04%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-68,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-56,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-21,51; 43,06</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-87,44; -64,35</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-71,6; -37,47</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 49,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-71,04; -29,06</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-67,76; -20,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,7; 35,2</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-76,53; -56,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-67,59; -41,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
